--- a/artfynd/A 64675-2021.xlsx
+++ b/artfynd/A 64675-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,6 +4300,232 @@
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112213272</v>
+      </c>
+      <c r="B32" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Simsbodarna O, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>515738</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6704726</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112213305</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Simsbodarna O, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>515748</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6704727</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 64675-2021.xlsx
+++ b/artfynd/A 64675-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112213272</v>
+        <v>112213305</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>89503</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4314,25 +4314,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515738</v>
+        <v>515748</v>
       </c>
       <c r="R32" t="n">
-        <v>6704726</v>
+        <v>6704727</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112213305</v>
+        <v>112213272</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>89539</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4427,25 +4427,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515748</v>
+        <v>515738</v>
       </c>
       <c r="R33" t="n">
-        <v>6704727</v>
+        <v>6704726</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4525,6 +4525,130 @@
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112274505</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Simsbodarna Ö, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>515431</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6704883</v>
+      </c>
+      <c r="S34" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 64675-2021.xlsx
+++ b/artfynd/A 64675-2021.xlsx
@@ -4302,10 +4302,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112213305</v>
+        <v>112213272</v>
       </c>
       <c r="B32" t="n">
-        <v>89503</v>
+        <v>89553</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4314,25 +4314,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515748</v>
+        <v>515738</v>
       </c>
       <c r="R32" t="n">
-        <v>6704727</v>
+        <v>6704726</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112213272</v>
+        <v>112213305</v>
       </c>
       <c r="B33" t="n">
-        <v>89539</v>
+        <v>89517</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4427,25 +4427,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515738</v>
+        <v>515748</v>
       </c>
       <c r="R33" t="n">
-        <v>6704726</v>
+        <v>6704727</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4531,7 +4531,7 @@
         <v>112274505</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>

--- a/artfynd/A 64675-2021.xlsx
+++ b/artfynd/A 64675-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112213272</v>
+        <v>112213305</v>
       </c>
       <c r="B32" t="n">
-        <v>89553</v>
+        <v>89517</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4314,25 +4314,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515738</v>
+        <v>515748</v>
       </c>
       <c r="R32" t="n">
-        <v>6704726</v>
+        <v>6704727</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112213305</v>
+        <v>112213272</v>
       </c>
       <c r="B33" t="n">
-        <v>89517</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4427,25 +4427,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515748</v>
+        <v>515738</v>
       </c>
       <c r="R33" t="n">
-        <v>6704727</v>
+        <v>6704726</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4650,6 +4650,135 @@
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112539791</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90858</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Simsbodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>515374</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6704951</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>En mindre fk.</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Anna-Lena Thommson, Niklas Rehn, Matilda Elgerud, Malte Lindberg, Holger Martinussen</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
